--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/67/correct_predictions_67.xlsx
@@ -656,42 +656,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>RTH Altitude 98FT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -716,22 +716,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/67/correct_predictions_67.xlsx
@@ -656,42 +656,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -716,22 +716,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>RTH Altitude 98FT</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
